--- a/biology/Zoologie/Dendrolagus_goodfellowi/Dendrolagus_goodfellowi.xlsx
+++ b/biology/Zoologie/Dendrolagus_goodfellowi/Dendrolagus_goodfellowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrolague de Goodfellow
-Le Dendrolague de Goodfellow[1] (Dendrolagus goodfellowi) est une espèce de marsupiaux originaire des forêts tropicales humides de l'île de Nouvelle-Guinée. D'après l'Union internationale pour la conservation de la nature (UICN), l'espèce est en danger, ce qui est le résultat de la chasse abusive et de l'empiétement humain sur son habitat.
+Le Dendrolague de Goodfellow (Dendrolagus goodfellowi) est une espèce de marsupiaux originaire des forêts tropicales humides de l'île de Nouvelle-Guinée. D'après l'Union internationale pour la conservation de la nature (UICN), l'espèce est en danger, ce qui est le résultat de la chasse abusive et de l'empiétement humain sur son habitat.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pèse environ 7 kg, la femelle étant généralement un peu plus lourde que le mâle. Comme les autres kangourous arboricoles, Dendrolagus goodfellowi est très différent en apparence des kangourous terrestres. Contrairement à ses cousins qui vivent sur le sol, ses pattes arrière ne sont pas disproportionnées par rapport à ses pattes avant qui sont fortes et se terminent par de puissantes griffes, ce qui lui permettent de monter dans les arbres. Ses pattes arrière se terminent par quatre griffes, deux grandes et deux petites.
 			Patte arrière, vue de dessus.
@@ -550,13 +564,11 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa locomotion est à prédominance arboricole. Sa longue queue lui sert de contrepoids. 
-Alimentation
-C'est un animal surtout herbivore qui se nourrit surtout de feuilles, de fougères, de champignons, de fruits mais il peut consommer aussi des insectes, des œufs et des oisillons.
-Reproduction
-Il atteint sa maturité sexuelle vers l'âge de deux ans et se reproduit toute l'année. Il y a généralement un petit par portée qui passe environ dix mois dans la poche marsupiale
 </t>
         </is>
       </c>
@@ -582,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il vit dans les régions montagneuses de l’État de Papouasie-Nouvelle-Guinée, entre 1000 et 2000 mètres d'altitude. Son aire de répartition s'étend à l'ouest jusqu'à la frontière avec l'Indonésie (province de Papouasie).
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un animal surtout herbivore qui se nourrit surtout de feuilles, de fougères, de champignons, de fruits mais il peut consommer aussi des insectes, des œufs et des oisillons.
 </t>
         </is>
       </c>
@@ -613,15 +631,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces
-Selon MSW :
-Dendrolagus goodfellowi buergersi Matschie, 1912
-Dendrolagus goodfellowi goodfellowi Thomas, 1908</t>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint sa maturité sexuelle vers l'âge de deux ans et se reproduit toute l'année. Il y a généralement un petit par portée qui passe environ dix mois dans la poche marsupiale
+</t>
         </is>
       </c>
     </row>
@@ -646,10 +668,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans les régions montagneuses de l’État de Papouasie-Nouvelle-Guinée, entre 1000 et 2000 mètres d'altitude. Son aire de répartition s'étend à l'ouest jusqu'à la frontière avec l'Indonésie (province de Papouasie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dendrolagus_goodfellowi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrolagus_goodfellowi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon MSW :
+Dendrolagus goodfellowi buergersi Matschie, 1912
+Dendrolagus goodfellowi goodfellowi Thomas, 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dendrolagus_goodfellowi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrolagus_goodfellowi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
